--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkienchuan.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkienchuan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -30,36 +30,9 @@
     <t>Loại</t>
   </si>
   <si>
-    <t>Intel Core i7-4960X1</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Intel Xeon E5-2697 v2</t>
-  </si>
-  <si>
-    <t>Intel Xeon E5-2687W</t>
-  </si>
-  <si>
-    <t>Intel Xeon E5-2680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intel Core i7-3689Y </t>
-  </si>
-  <si>
-    <t>AMD Phenom II X4 820</t>
-  </si>
-  <si>
-    <t>Intel Xeon X3323</t>
-  </si>
-  <si>
-    <t>Intel Xeon E5-2665</t>
-  </si>
-  <si>
-    <t>AMD Turion Dual-Core RM-70</t>
-  </si>
-  <si>
     <t>Intel Core i7-4960HQ</t>
   </si>
   <si>
@@ -130,6 +103,81 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4570</t>
+  </si>
+  <si>
+    <t>AMD Athlon II X2 245</t>
+  </si>
+  <si>
+    <t>Intel Core i7-3960X Extreme Edition</t>
+  </si>
+  <si>
+    <t>Intel Core i7-4702MQ</t>
+  </si>
+  <si>
+    <t>Intel Core i7-960</t>
+  </si>
+  <si>
+    <t>Intel Core i5-3570</t>
+  </si>
+  <si>
+    <t>Intel Core i5-4430</t>
+  </si>
+  <si>
+    <t>Intel Core i5-2500</t>
+  </si>
+  <si>
+    <t>Intel Core i5-2500K</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 2500</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 4000</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 4200</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 4400</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 5000</t>
+  </si>
+  <si>
+    <t>Intel Iris Graphics 5100 Mobile</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce 610M</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce 710M</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 445M</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 550M</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 555M</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 620</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 620M</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 630</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GT 635M</t>
   </si>
 </sst>
 </file>
@@ -529,15 +577,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -560,13 +608,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,13 +622,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>11420</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -602,13 +650,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>6640</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,13 +664,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6630</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -630,13 +678,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6420</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -644,13 +692,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,13 +706,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6220</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,13 +720,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6220</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +734,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +748,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +762,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +776,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +790,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,13 +804,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,13 +818,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,13 +832,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,13 +846,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,13 +860,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,13 +874,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,13 +888,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,13 +902,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,13 +930,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,13 +944,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,13 +958,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +972,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +986,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,13 +1000,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +1014,217 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>330</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <v>1050</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36">
+        <v>910</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>1070</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>1070</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>550</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>1110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>1200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>1040</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>1430</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>750</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45">
+        <v>950</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>1160</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>1070</v>
+      </c>
+      <c r="D47" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -979,8 +1237,23 @@
     <hyperlink ref="B17" r:id="rId6" display="http://www.cpubenchmark.net/cpu.php?cpu=Intel+Core2+Duo+T9300+%40+2.50GHz&amp;id=1008"/>
     <hyperlink ref="B20" r:id="rId7" display="http://www.cpubenchmark.net/cpu.php?cpu=AMD+Turion+64+X2+Mobile+TL-64&amp;id=464"/>
     <hyperlink ref="B5" r:id="rId8" display="http://www.cpubenchmark.net/cpu.php?cpu=Intel+Xeon+E5-2680+v2+%40+2.80GHz&amp;id=2061"/>
+    <hyperlink ref="B33" r:id="rId9" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+2500/review"/>
+    <hyperlink ref="B35" r:id="rId10" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+4200+Mobile/review"/>
+    <hyperlink ref="B36" r:id="rId11" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+4400+Mobile/review"/>
+    <hyperlink ref="B37" r:id="rId12" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+5000/review"/>
+    <hyperlink ref="B38" r:id="rId13" display="http://www.futuremark.com/hardware/gpu/Intel+Iris+Graphics+5100+Mobile/review"/>
+    <hyperlink ref="B39" r:id="rId14" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+610M/review"/>
+    <hyperlink ref="B40" r:id="rId15" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+710M/review"/>
+    <hyperlink ref="B41" r:id="rId16" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+445M/review"/>
+    <hyperlink ref="B42" r:id="rId17" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+550M/review"/>
+    <hyperlink ref="B43" r:id="rId18" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+555M/review"/>
+    <hyperlink ref="B44" r:id="rId19" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+620/review"/>
+    <hyperlink ref="B45" r:id="rId20" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+620M/review"/>
+    <hyperlink ref="B46" r:id="rId21" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+630/review"/>
+    <hyperlink ref="B47" r:id="rId22" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+635M/review"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkienchuan.xlsx
+++ b/trunk/code/CPS_Solution/CPS_Solution/App_Data/uploads/linhkienchuan.xlsx
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -275,6 +275,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -579,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,8 +737,8 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" s="5">
+        <v>10022</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -751,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>9851</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -765,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>9711</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -779,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3049</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -793,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1714</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -807,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1704</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -821,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -835,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -849,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1236,21 +1237,21 @@
     <hyperlink ref="B16" r:id="rId5" display="http://www.cpubenchmark.net/cpu.php?cpu=Intel+Core2+Duo+P8800+%40+2.66GHz&amp;id=976"/>
     <hyperlink ref="B17" r:id="rId6" display="http://www.cpubenchmark.net/cpu.php?cpu=Intel+Core2+Duo+T9300+%40+2.50GHz&amp;id=1008"/>
     <hyperlink ref="B20" r:id="rId7" display="http://www.cpubenchmark.net/cpu.php?cpu=AMD+Turion+64+X2+Mobile+TL-64&amp;id=464"/>
-    <hyperlink ref="B5" r:id="rId8" display="http://www.cpubenchmark.net/cpu.php?cpu=Intel+Xeon+E5-2680+v2+%40+2.80GHz&amp;id=2061"/>
-    <hyperlink ref="B33" r:id="rId9" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+2500/review"/>
-    <hyperlink ref="B35" r:id="rId10" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+4200+Mobile/review"/>
-    <hyperlink ref="B36" r:id="rId11" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+4400+Mobile/review"/>
-    <hyperlink ref="B37" r:id="rId12" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+5000/review"/>
-    <hyperlink ref="B38" r:id="rId13" display="http://www.futuremark.com/hardware/gpu/Intel+Iris+Graphics+5100+Mobile/review"/>
-    <hyperlink ref="B39" r:id="rId14" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+610M/review"/>
-    <hyperlink ref="B40" r:id="rId15" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+710M/review"/>
-    <hyperlink ref="B41" r:id="rId16" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+445M/review"/>
-    <hyperlink ref="B42" r:id="rId17" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+550M/review"/>
-    <hyperlink ref="B43" r:id="rId18" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+555M/review"/>
-    <hyperlink ref="B44" r:id="rId19" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+620/review"/>
-    <hyperlink ref="B45" r:id="rId20" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+620M/review"/>
-    <hyperlink ref="B46" r:id="rId21" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+630/review"/>
-    <hyperlink ref="B47" r:id="rId22" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+635M/review"/>
+    <hyperlink ref="B33" r:id="rId8" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+2500/review"/>
+    <hyperlink ref="B35" r:id="rId9" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+4200+Mobile/review"/>
+    <hyperlink ref="B36" r:id="rId10" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+4400+Mobile/review"/>
+    <hyperlink ref="B37" r:id="rId11" display="http://www.futuremark.com/hardware/gpu/Intel+HD+Graphics+5000/review"/>
+    <hyperlink ref="B38" r:id="rId12" display="http://www.futuremark.com/hardware/gpu/Intel+Iris+Graphics+5100+Mobile/review"/>
+    <hyperlink ref="B39" r:id="rId13" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+610M/review"/>
+    <hyperlink ref="B40" r:id="rId14" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+710M/review"/>
+    <hyperlink ref="B41" r:id="rId15" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+445M/review"/>
+    <hyperlink ref="B42" r:id="rId16" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+550M/review"/>
+    <hyperlink ref="B43" r:id="rId17" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+555M/review"/>
+    <hyperlink ref="B44" r:id="rId18" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+620/review"/>
+    <hyperlink ref="B45" r:id="rId19" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+620M/review"/>
+    <hyperlink ref="B46" r:id="rId20" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+630/review"/>
+    <hyperlink ref="B47" r:id="rId21" display="http://www.futuremark.com/hardware/gpu/NVIDIA+GeForce+GT+635M/review"/>
+    <hyperlink ref="B5" r:id="rId22" display="http://www.cpubenchmark.net/cpu.php?cpu=Intel+Xeon+E5-2680+v2+%40+2.80GHz&amp;id=2061"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
